--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-location.xlsx
@@ -820,7 +820,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -845,7 +845,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
